--- a/data_in/dimensionless/Decomposition Factors.xlsx
+++ b/data_in/dimensionless/Decomposition Factors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="690" windowWidth="19440" windowHeight="15000" tabRatio="808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Namen WZ" sheetId="5" r:id="rId1"/>
@@ -322,10 +322,6 @@
     <t>Exterritoriale Organisationen und Körperschaften</t>
   </si>
   <si>
-    <t>Mechanische 
-Energie</t>
-  </si>
-  <si>
     <t>WZ</t>
   </si>
   <si>
@@ -356,7 +352,10 @@
     <t>Energetischer Erdgasverbrauch</t>
   </si>
   <si>
-    <t>Nichtenergetischer Erdgasverbrauch</t>
+    <t>Mechanische Energie</t>
+  </si>
+  <si>
+    <t>Nichtenergetische Nutzung</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>14</v>
@@ -1696,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>18</v>
@@ -1705,13 +1704,13 @@
         <v>19</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4826,8 +4825,8 @@
   </sheetPr>
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4840,19 +4839,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>18</v>
@@ -4861,7 +4860,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,7 +7496,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A2:XFD2 A8:XFD8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7513,19 +7512,19 @@
   <sheetData>
     <row r="1" spans="1:17" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
